--- a/biology/Botanique/Champagne_de_Venoge/Champagne_de_Venoge.xlsx
+++ b/biology/Botanique/Champagne_de_Venoge/Champagne_de_Venoge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Champagne de Venoge est une maison de Champagne située  à Épernay. La maison est fondée à Mareuil-sur-Ay en 1837 par le Suisse Marc-Henri de Venoge, qui déménage rapidement ses activités à Épernay[1].
+Champagne de Venoge est une maison de Champagne située  à Épernay. La maison est fondée à Mareuil-sur-Ay en 1837 par le Suisse Marc-Henri de Venoge, qui déménage rapidement ses activités à Épernay.
 </t>
         </is>
       </c>
@@ -512,16 +524,18 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Henri-Marc de Venoge émigre depuis son canton de Vaud natal vers la Champagne.
 C’est en 1825 qu’il établit à Mareuil-sur-Aÿ un comptoir de commerce pour le négoce des draps et de vin. Le vin est élevé par des viticulteur et on ne parle pas encore de Champagne mais de vin mousseux de champagne. 
 En 1837, Henri-Marc de Venoge transforme le comptoir en la maison de Champagne de Venoge en créant la société « de Venoge &amp; Cie », avec son fils Joseph. 
-La maison déménage la même année rue Lochet à Épernay[2],[3]. Puis en 1838, Henri-Marc de Venoge crée la première étiquette illustrée de l’Histoire de la Champagne. Il fait rapidement évoluer ses étiquettes en les adaptant à l’effigie de ses clients ou d’événements spécifiques. Concernant l'aspect de la bouteille, elle a la forme d'une élégante carafe qui rappelle les 
-habitudes de la grande aristocratie européenne du début du XXe siècle qui décantait le Champagne en flacons de cristal. En 1860, Joseph le fils lance une étiquette, véritable œuvre d’art, qui restera pendant des décennies : le Vin du Paradis[3].
+La maison déménage la même année rue Lochet à Épernay,. Puis en 1838, Henri-Marc de Venoge crée la première étiquette illustrée de l’Histoire de la Champagne. Il fait rapidement évoluer ses étiquettes en les adaptant à l’effigie de ses clients ou d’événements spécifiques. Concernant l'aspect de la bouteille, elle a la forme d'une élégante carafe qui rappelle les 
+habitudes de la grande aristocratie européenne du début du XXe siècle qui décantait le Champagne en flacons de cristal. En 1860, Joseph le fils lance une étiquette, véritable œuvre d’art, qui restera pendant des décennies : le Vin du Paradis.
 Après les débuts de la marque, la renommée du champagne de Venoge prend de l'ampleur. En 1876, le champagne de Venoge, fortement implanté aux États-Unis, reçoit le Grand Prix de l’exposition universelle de Philadelphie en 1876. Puis en 1939, l'affichiste bien connu, Robert Falcucci, qui crée la fameuse affiche “Bouchon Monoclé” pour la maison de Venoge. 
-Par la suite, en 1958, la famille de Venoge cède la marque De Venoge ; la marque  et les stocks sont installés dans les bâtiments du Champagne Boizel, au 46 avenue de Champagne à Épernay. Finalement, en 2015, la maison de Champagne de Venoge s'installe, au 33 avenue de Champagne dans un hôtel particulier datant de 1900, la Villa Gallice[4].
+Par la suite, en 1958, la famille de Venoge cède la marque De Venoge ; la marque  et les stocks sont installés dans les bâtiments du Champagne Boizel, au 46 avenue de Champagne à Épernay. Finalement, en 2015, la maison de Champagne de Venoge s'installe, au 33 avenue de Champagne dans un hôtel particulier datant de 1900, la Villa Gallice.
 	Les bâtiments de Venoge dans le temps
 			Siège de la maison "de Venoge et Cie" à Épernay.
 			Le 46 avenue de Champagne à Épernay, ancienne adresse des champagnes de Venoge.
@@ -555,11 +569,48 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison produit environ 1 700 000 bouteilles par an, avec des cuvées allant du blanc de blancs au blanc de noirs. Elle produit notamment une cuvée prestige, la Cuvée des Princes[1].
-Les vins
-Le Cordon Bleu Extra Brut est le Brut Sans Année de la maison de Venoge. C'est leur vin le plus vendu et leur carte de visite. Le vin, très peu sucré dans la liqueur d'expédition, est composé à 50 % de pinot noir, 25 % de pinot meunier et 25 % de chardonnay. Afin de pouvoir livrer une qualité constante, 30 % du vin utilisé à cet effet a été extrait des réserves qui reposent dans les caves de la maison.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison produit environ 1 700 000 bouteilles par an, avec des cuvées allant du blanc de blancs au blanc de noirs. Elle produit notamment une cuvée prestige, la Cuvée des Princes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Champagne_de_Venoge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Champagne_de_Venoge</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les vins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cordon Bleu Extra Brut est le Brut Sans Année de la maison de Venoge. C'est leur vin le plus vendu et leur carte de visite. Le vin, très peu sucré dans la liqueur d'expédition, est composé à 50 % de pinot noir, 25 % de pinot meunier et 25 % de chardonnay. Afin de pouvoir livrer une qualité constante, 30 % du vin utilisé à cet effet a été extrait des réserves qui reposent dans les caves de la maison.
 Le Brut Millésime est un champagne élaboré à partir de raisins cueillis la même année à Ay et Verzenay. De Venoge utilise 50 % de pinot noir, environ 15 % de pinot meunier et environ 25 % de chardonnay pour ce millésime.
 Le Champagne Rosé est coloré avec l'ajout de vin rouge issu du cépage pinot noir. C'est aussi un amalgame de chardonnay, de pinot noir et de pinot meunier. Les fines bulles de gaz carbonique en font un “Crémant Rosé”.
 Le Vin du Paradis est un champagne sec, ce qui signifie que, selon la loi française, entre 17 et 35 grammes de sucre ont été ajoutés au vin. La maison de Venoge a opté pour 20 grammes par litre. L'assemblage de 60 % de pinot noir des communes grand cru de la Montagne de Reims a été complété à parts égales de pinot meunier et de chardonnay.
@@ -574,8 +625,43 @@
 	Quelques cuvées des champagnes de Venoge
 			Cuvée Louis XV.
 			Cordon Bleu Brut.
-Vin rouge
-De La Forêt est un vin rouge tranquille de Champagne. Ces bouteilles peuvent porter l'Appellation d'Origine Contrôlée Coteaux champenois sur l'étiquette. Ce vin est un millésime et a été élaboré à partir de pinot noir des Riceys. Avant que Dom Pérignon ne développe la méthode traditionnelle et transforme le champagne en un vin blanc effervescent, le vin rouge était principalement produit dans la région. Louis XIV ne connaissait pas les champagnes mousseux, il buvait ainsi du champagne rouge sur les conseils de ses médecins. Ce vin a été élaboré à partir de raisins de vignes de quarante ans d'âge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Champagne_de_Venoge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Champagne_de_Venoge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vin rouge</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De La Forêt est un vin rouge tranquille de Champagne. Ces bouteilles peuvent porter l'Appellation d'Origine Contrôlée Coteaux champenois sur l'étiquette. Ce vin est un millésime et a été élaboré à partir de pinot noir des Riceys. Avant que Dom Pérignon ne développe la méthode traditionnelle et transforme le champagne en un vin blanc effervescent, le vin rouge était principalement produit dans la région. Louis XIV ne connaissait pas les champagnes mousseux, il buvait ainsi du champagne rouge sur les conseils de ses médecins. Ce vin a été élaboré à partir de raisins de vignes de quarante ans d'âge.
 </t>
         </is>
       </c>
